--- a/GATEWAY/A1#111PENTASISTEMI/Penta_Sistemi_srl/GSD.System/4.4/report-checklist.xlsx
+++ b/GATEWAY/A1#111PENTASISTEMI/Penta_Sistemi_srl/GSD.System/4.4/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pentasistemisrl.sharepoint.com/sites/DocumentiAvarice/Documenti condivisi/SOGEI - FSE/01 - Validazione/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pentasistemisrl.sharepoint.com/sites/DocumentiAvarice/Documenti condivisi/SOGEI - FSE/02 - Validazione/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{312422C7-FF6C-4315-B13B-A35A4C0A27B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E651962D-53AA-4C85-8273-3119FB38FA86}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{312422C7-FF6C-4315-B13B-A35A4C0A27B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D7D0F99-4AB8-434E-AA9D-C377AAA42410}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1134,15 +1134,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.7320450c705a3da9425c9c9d7860ab23cccb653fdfc12a6973ba1cf260efbcc3.89c5aad44d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-06-05T15:40:11+02:00</t>
-  </si>
-  <si>
-    <t>cd2c9e13c3a26c95</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2872fbf48874cfd014b9258cebd5310244ac9b2b9253de80332cb8c16f16add4.9a95637bda^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-06-05T15:53:18+02:00</t>
   </si>
   <si>
@@ -1186,6 +1177,15 @@
   </si>
   <si>
     <t>Viene mostrato l'errore "Il campo action_id non è corretto" e vengono attivate le procedure di fixing.</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.5e769e079a2105f8725f137dcd5b38d36a2ff051aaf42b25404048f4358a0f6c.1ac4e1f3c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0e52f1f45016de10</t>
+  </si>
+  <si>
+    <t>2023-06-08T14:18:58.6002563+02:00</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2149,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2640,16 +2640,16 @@
         <v>66</v>
       </c>
       <c r="F15" s="23">
-        <v>45082</v>
+        <v>45085</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>83</v>
@@ -2801,13 +2801,13 @@
         <v>45082</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>83</v>
@@ -2824,7 +2824,7 @@
         <v>83</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
@@ -2853,13 +2853,13 @@
         <v>45082</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>83</v>
@@ -2876,7 +2876,7 @@
         <v>83</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -2905,13 +2905,13 @@
         <v>45082</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J21" s="25" t="s">
         <v>83</v>
@@ -2928,7 +2928,7 @@
         <v>83</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -2957,13 +2957,13 @@
         <v>45082</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>83</v>
@@ -2980,7 +2980,7 @@
         <v>83</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
@@ -3009,7 +3009,7 @@
         <v>45082</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -3024,13 +3024,13 @@
         <v>197</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>197</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26" t="s">
@@ -3061,7 +3061,7 @@
         <v>45082</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -3076,13 +3076,13 @@
         <v>197</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O24" s="25" t="s">
         <v>197</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="26" t="s">

--- a/GATEWAY/A1#111PENTASISTEMI/Penta_Sistemi_srl/GSD.System/4.4/report-checklist.xlsx
+++ b/GATEWAY/A1#111PENTASISTEMI/Penta_Sistemi_srl/GSD.System/4.4/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pentasistemisrl.sharepoint.com/sites/DocumentiAvarice/Documenti condivisi/SOGEI - FSE/02 - Validazione/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LorenzoPistolesi-Pen\Penta Sistemi s.r.l\DEV - Avarice - Documenti\SOGEI - FSE\03 - Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{312422C7-FF6C-4315-B13B-A35A4C0A27B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D7D0F99-4AB8-434E-AA9D-C377AAA42410}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4620281B-9CC0-42B5-A429-B696DA5043B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="260">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1170,15 +1170,6 @@
     <t>Viene mostrato l'errore "Timeout dell'operazione".</t>
   </si>
   <si>
-    <t>Viene ritentato dopo un tempo configurabile.</t>
-  </si>
-  <si>
-    <t>Viene mostrato l'errore "Il campo purpose_of_use non è valorizzato" e vengono attivate le procedure di fixing.</t>
-  </si>
-  <si>
-    <t>Viene mostrato l'errore "Il campo action_id non è corretto" e vengono attivate le procedure di fixing.</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.5e769e079a2105f8725f137dcd5b38d36a2ff051aaf42b25404048f4358a0f6c.1ac4e1f3c9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -1186,6 +1177,19 @@
   </si>
   <si>
     <t>2023-06-08T14:18:58.6002563+02:00</t>
+  </si>
+  <si>
+    <t>Viene mostrato l'errore "Il campo purpose_of_use non è valorizzato" e vengono attivate le procedure di fixing.
+Il documento viene comunque archiviato nel reposiory aziendale ma viene trattenuto nella coda per l'invio all'FSE sino a soluzione del problema da parte del Back Office.</t>
+  </si>
+  <si>
+    <t>Viene mostrato l'errore "Il campo purpose_of_use non è valorizzato" e vengono attivate le procedure di fixing.Il documento viene comunque archiviato nel reposiory aziendale ma viene trattenuto nella coda per l'invio all'FSE sino a soluzione del problema da parte del Back Office.</t>
+  </si>
+  <si>
+    <t>Viene mostrato l'errore "Il campo action_id non è corretto" e vengono attivate le procedure di fixing.Il documento viene comunque archiviato nel reposiory aziendale ma viene trattenuto nella coda per l'invio all'FSE sino a soluzione del problema da parte del Back Office.</t>
+  </si>
+  <si>
+    <t>Viene ritentato dopo un tempo configurabile dal processo automatico di invio dei DCE all'FSE senza necessità di intervento umano.</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2153,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2643,13 +2647,13 @@
         <v>45085</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>83</v>
@@ -2781,7 +2785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>28</v>
       </c>
@@ -2824,7 +2828,7 @@
         <v>83</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
@@ -2833,7 +2837,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>31</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>83</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -2928,7 +2932,7 @@
         <v>83</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
@@ -2980,7 +2984,7 @@
         <v>83</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="25"/>
       <c r="R22" s="26"/>
@@ -2989,7 +2993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>44</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>197</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26" t="s">
@@ -3041,7 +3045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>47</v>
       </c>
@@ -3082,7 +3086,7 @@
         <v>197</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="26" t="s">
@@ -16584,21 +16588,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDB09A703D02984ABAEE53FD3E2057CA" ma:contentTypeVersion="4" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="4472b17e7dea6c4fe44ece7ab2244fc8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38cb5d15-0f95-4633-b946-4d72fc0823be" xmlns:ns3="2f67addd-f966-4724-8b10-c30ce7a357ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="39e1c7f298891c6630d34b7193b984aa" ns2:_="" ns3:_="">
     <xsd:import namespace="38cb5d15-0f95-4633-b946-4d72fc0823be"/>
@@ -16763,24 +16752,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23724737-68EB-4E9A-A1CF-BA88F0AB1C31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD28E2CC-6532-42AD-B27E-B5C28375FF7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E857014-3D4C-400C-9957-1A7764415636}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16797,4 +16784,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD28E2CC-6532-42AD-B27E-B5C28375FF7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23724737-68EB-4E9A-A1CF-BA88F0AB1C31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>